--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value920.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value920.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.48504128713177</v>
+        <v>1.030389785766602</v>
       </c>
       <c r="B1">
-        <v>1.821054285677173</v>
+        <v>1.836334943771362</v>
       </c>
       <c r="C1">
-        <v>2.531255156904534</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.772303819656372</v>
       </c>
       <c r="E1">
-        <v>0.6744327876902544</v>
+        <v>1.231554388999939</v>
       </c>
     </row>
   </sheetData>
